--- a/opswork/ContentComparison2.xlsx
+++ b/opswork/ContentComparison2.xlsx
@@ -11,6 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Meta-Category Summary" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brand Matrix" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Entertainment Deep Dive" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Engagement Driver Mapping" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Engagement Driver Summary" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33,7 +35,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -42,6 +44,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEBEE"/>
+        <bgColor rgb="00FFEBEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E3F2FD"/>
+        <bgColor rgb="00E3F2FD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF8E1"/>
+        <bgColor rgb="00FFF8E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F5E9"/>
+        <bgColor rgb="00E8F5E9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -56,7 +82,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -65,6 +91,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -620,12 +650,7 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
@@ -692,12 +717,7 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
@@ -764,12 +784,7 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-    </row>
+    <row r="17"/>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
@@ -946,12 +961,7 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
+    <row r="26"/>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
@@ -1128,12 +1138,7 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-    </row>
+    <row r="35"/>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
@@ -1951,23 +1956,231 @@
         </is>
       </c>
     </row>
+    <row r="7"/>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>KEY INSIGHT:</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Two entertainment playbooks exist:</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1) O Positiv/Nello: Entertainment IS the content (85%/68%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2) Others: Entertainment supplements education (&lt;35%)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>META-CATEGORY</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ORIGINAL DRIVER NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BRAND(S) USING</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GROUPING RATIONALE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>URGENCY</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Live Exclusive Deals</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Goli</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>Creates pressure to act immediately with exclusive access</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>URGENCY</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Countdown Urgency</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Goli, Micro Ingredients</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>Time-based pressure with countdown mechanics</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>URGENCY</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Limited Time Offer</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Goli, Neurogum</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Scarcity through time-limited availability</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>URGENCY</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Limited Time Urgency</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Snap Supplements</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Time pressure to drive immediate action</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>URGENCY</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Limited Time Offers</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Kind Patches</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Scarcity through time-limited deals</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>URGENCY</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Exclusive Deals</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Nello</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Scarcity through exclusivity</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>KEY INSIGHT:</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Two entertainment playbooks exist:</t>
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>URGENCY</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Giveaway Mechanics</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Nello</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Creates urgency through limited participation windows</t>
         </is>
       </c>
     </row>
@@ -1975,19 +2188,628 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1) O Positiv/Nello: Entertainment IS the content (85%/68%)</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2) Others: Entertainment supplements education (&lt;35%)</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>CREDIBILITY</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Science Explanation</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Micro Ingredients</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Builds trust through scientific backing</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>CREDIBILITY</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Science Backed Claims</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Physician's Choice</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Authority through scientific evidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>CREDIBILITY</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Scientific Explanation</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Snap Supplements, Neurogum</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Trust through detailed science</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>CREDIBILITY</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Specific Numbers Cited</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Snap Supplements</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Credibility through concrete data points</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>CREDIBILITY</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Benefit Explanation</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Bella All Natural</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Trust through clear benefit articulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>CREDIBILITY</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Testing Knowledge</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>O Positiv</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Establishes expertise through quizzes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>SOCIAL PROOF</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>Personal Testimony</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>Micro Ingredients, Neurogum</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>Trust through personal stories</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>SOCIAL PROOF</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>Real Customer Testimonials</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>Physician's Choice</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>Validation through customer experiences</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>SOCIAL PROOF</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>Personal Transformation Story</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>Physician's Choice, Kind Patches</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>Proof through before/after narratives</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>SOCIAL PROOF</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>Personal Results Shared</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>Snap Supplements</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>Credibility through documented outcomes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>SOCIAL PROOF</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>Helping Women Out</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>O Positiv</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>Social validation through community support</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>SOCIAL PROOF</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>Tag Friends</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>Nello</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>Social proof through peer sharing</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>RELATABILITY</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>Visual Demonstration</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="inlineStr">
+        <is>
+          <t>Micro Ingredients</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>Makes product tangible and understandable</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>RELATABILITY</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>Product Demonstration</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="inlineStr">
+        <is>
+          <t>Physician's Choice</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="inlineStr">
+        <is>
+          <t>Shows real-world usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>RELATABILITY</t>
+        </is>
+      </c>
+      <c r="B26" s="7" t="inlineStr">
+        <is>
+          <t>Product Unboxing</t>
+        </is>
+      </c>
+      <c r="C26" s="7" t="inlineStr">
+        <is>
+          <t>Bella All Natural</t>
+        </is>
+      </c>
+      <c r="D26" s="7" t="inlineStr">
+        <is>
+          <t>Creates aspirational but achievable experience</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>RELATABILITY</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="inlineStr">
+        <is>
+          <t>Usage Instructions</t>
+        </is>
+      </c>
+      <c r="C27" s="7" t="inlineStr">
+        <is>
+          <t>Bella All Natural</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>Makes viewer see themselves using product</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>RELATABILITY</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>Flavor Variety Showcase</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr">
+        <is>
+          <t>Bella All Natural</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="inlineStr">
+        <is>
+          <t>Appeals to personal preferences</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>RELATABILITY</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>Product Comparison</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Neurogum</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>Helps viewer make informed personal choice</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>RELATABILITY</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>Strangers Reactions</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr">
+        <is>
+          <t>O Positiv</t>
+        </is>
+      </c>
+      <c r="D30" s="7" t="inlineStr">
+        <is>
+          <t>Creates relatable social scenarios</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>RELATABILITY</t>
+        </is>
+      </c>
+      <c r="B31" s="7" t="inlineStr">
+        <is>
+          <t>Awkward Requests</t>
+        </is>
+      </c>
+      <c r="C31" s="7" t="inlineStr">
+        <is>
+          <t>O Positiv</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>Builds connection through shared awkwardness</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>RELATABILITY</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="inlineStr">
+        <is>
+          <t>Routine Integration Content</t>
+        </is>
+      </c>
+      <c r="C32" s="7" t="inlineStr">
+        <is>
+          <t>Kind Patches</t>
+        </is>
+      </c>
+      <c r="D32" s="7" t="inlineStr">
+        <is>
+          <t>Shows product fitting into daily life</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>RELATABILITY</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="inlineStr">
+        <is>
+          <t>Relatable Mom Content</t>
+        </is>
+      </c>
+      <c r="C33" s="7" t="inlineStr">
+        <is>
+          <t>Kind Patches</t>
+        </is>
+      </c>
+      <c r="D33" s="7" t="inlineStr">
+        <is>
+          <t>Connects with specific audience identity</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="55" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>META-CATEGORY</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t># ORIGINAL DRIVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t># BRANDS USING</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CORE PSYCHOLOGICAL TRIGGER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>URGENCY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5/9 (56%)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Creates pressure to act NOW - time scarcity, exclusivity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CREDIBILITY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6/9 (67%)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Builds trust through proof - science, numbers, expertise</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SOCIAL PROOF</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6/9 (67%)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Shows others succeeded - testimonials, transformations</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RELATABILITY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6/9 (67%)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Makes viewer see themselves - lifestyle, demos, reactions</t>
         </is>
       </c>
     </row>
